--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -451,491 +451,661 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>160919</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>大成产业升级股票(LOF)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>90.69</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001166</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信环保产业股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>360010</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>光大保德信均衡精选混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>80.90</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.72</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159959</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>99.56</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>512950</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>98.57</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>512960</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>99.50</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>41.27</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -945,7 +1115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,15 +1136,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -996,15 +1176,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>214.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.74</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.46</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004241</t>
+          <t>010213</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中欧时代先锋股票C</t>
+          <t>中欧互联网先锋混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.74</t>
+          <t>92.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.0351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009753</t>
+          <t>501208</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧美益稳健两年持有期混合A</t>
+          <t>中欧创新未来18个月封闭运作混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3900</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009754</t>
+          <t>512950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中欧美益稳健两年持有期混合C</t>
+          <t>华夏中证央企结构调整ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.83</t>
+          <t>77.08</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1140</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>512960</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>博时中证央企结构调整ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>74.95</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0430</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005342</t>
+          <t>515900</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合C</t>
+          <t>博时中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>44.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9585</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005743</t>
+          <t>515680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长安裕隆灵活配置混合A</t>
+          <t>嘉实中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>28.82</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8906</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005744</t>
+          <t>004241</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长安裕隆灵活配置混合C</t>
+          <t>中欧时代先锋股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>41.62</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8563</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006371</t>
+          <t>010662</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长安鑫盈灵活配置混合A</t>
+          <t>富国均衡优选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5992</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006372</t>
+          <t>515600</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长安鑫盈灵活配置混合C</t>
+          <t>广发中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>23.14</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5110</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005049</t>
+          <t>010214</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合A</t>
+          <t>中欧互联网先锋混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>16.92</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>2</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005050</t>
+          <t>159959</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合C</t>
+          <t>银华中证央企结构调整ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>22.34</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>001166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>建信环保产业股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>10.95</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7161</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>006371</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>长安鑫盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>164905</t>
+          <t>006615</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>交银国证新能源指数（LOF）</t>
+          <t>工银瑞信战略新兴产业混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>17.96</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.86</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3754</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009918</t>
+          <t>001476</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>上银核心成长混合A</t>
+          <t>中银智能制造股票</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>11.91</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009919</t>
+          <t>159974</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>上银核心成长混合C</t>
+          <t>富国中证央企创新驱动ETF</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>82.74</t>
+          <t>4.86</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010213</t>
+          <t>516800</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合A</t>
+          <t>华宝中证智能制造主题ETF</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>7</v>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3174</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>010214</t>
+          <t>005743</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中欧互联网先锋混合C</t>
+          <t>长安裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006615</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合A</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>006616</t>
+          <t>000893</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>工银瑞信战略新兴产业混合C</t>
+          <t>工银创新动力股票</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.12</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>000893</t>
+          <t>515580</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>工银创新动力股票</t>
+          <t>华泰柏瑞中证科技100ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>81.74</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>000894</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>中欧睿达定期开放混合A</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1630,25 +2040,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>009648</t>
+          <t>519756</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>中欧睿达定期开放混合C</t>
+          <t>交银施罗德国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>22.09</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>76.73</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0994</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>007133</t>
+          <t>164905</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票A</t>
+          <t>交银国证新能源指数（LOF）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>7</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>007134</t>
+          <t>005744</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>嘉实长青竞争优势股票C</t>
+          <t>长安裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2.00</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>501208</t>
+          <t>006372</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中欧创新未来18个月封闭运作混合A</t>
+          <t>长安鑫盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>97.58</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>007163</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>浦银安盛环保新能源混合A</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0779</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>007164</t>
+          <t>005049</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>浦银安盛环保新能源混合C</t>
+          <t>长安鑫旺价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -1798,25 +2268,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010662</t>
+          <t>001719</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富国均衡优选混合</t>
+          <t>工银瑞信国家战略主题股票</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>41.56</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>001166</t>
+          <t>006616</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>建信环保产业股票</t>
+          <t>工银瑞信战略新兴产业混合C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.54</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>3</v>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="33">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>510220</t>
+          <t>005050</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
+          <t>长安鑫旺价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.95</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>10</v>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>512950</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华夏中证央企结构调整ETF</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>98.61</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1910,25 +2420,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>512960</t>
+          <t>009753</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>博时中证央企结构调整ETF</t>
+          <t>中欧美益稳健两年持有期混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>99.61</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>001476</t>
+          <t>167503</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>中银智能制造股票</t>
+          <t>安信中证一带一路主题指数</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>85.10</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>10</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>515580</t>
+          <t>002137</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证科技100ETF</t>
+          <t>诺安利鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>98.51</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>515600</t>
+          <t>007163</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发中证央企创新驱动ETF</t>
+          <t>浦银安盛环保新能源混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>99.35</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>515680</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>嘉实中证央企创新驱动ETF</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.56</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>515900</t>
+          <t>007674</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>博时中证央企创新驱动ETF</t>
+          <t>工银瑞信产业升级股票A</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>516800</t>
+          <t>000894</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华宝中证智能制造主题ETF</t>
+          <t>中欧睿达定期开放混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>97.32</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>4</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001719</t>
+          <t>007164</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>工银瑞信国家战略主题股票</t>
+          <t>浦银安盛环保新能源混合C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>92.52</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4.70</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>9</v>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>159959</t>
+          <t>002630</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>银华中证央企结构调整ETF</t>
+          <t>江信瑞福灵活配置混合A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>159974</t>
+          <t>002631</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>富国中证央企创新驱动ETF</t>
+          <t>江信瑞福灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>98.96</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6.58</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
+          <t>43.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>519756</t>
+          <t>007133</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>交银施罗德国企改革灵活配置混合</t>
+          <t>嘉实长青竞争优势股票A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>76.73</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>009918</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>上银核心成长混合A</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>2</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>002137</t>
+          <t>005161</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>诺安利鑫灵活配置混合</t>
+          <t>华商上游产业股票</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>63.68</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>6</v>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>005161</t>
+          <t>007675</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华商上游产业股票</t>
+          <t>工银瑞信产业升级股票C</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>83.09</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="49">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>009919</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>上银核心成长混合C</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
+          <t>82.74</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>002630</t>
+          <t>009754</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合A</t>
+          <t>中欧美益稳健两年持有期混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>43.95</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>1</v>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>002631</t>
+          <t>510220</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>江信瑞福灵活配置混合C</t>
+          <t>华泰柏瑞上证中小盘ETF</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>43.95</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1</v>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="52">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>007674</t>
+          <t>007134</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>工银瑞信产业升级股票A</t>
+          <t>嘉实长青竞争优势股票C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>10</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="53">
@@ -2414,26 +3104,30 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>007675</t>
+          <t>009648</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>10</v>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3112,7 +3113,6 @@
           <t>中欧睿达定期开放混合C</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>22.09</t>
@@ -3128,6 +3128,744 @@
       </c>
       <c r="H53" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001938</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.7668</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2279</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2116</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004241</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧时代先锋股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>51.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1123</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0823</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7330</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6414</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>30.38</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3871,4 +3872,4616 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H121"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.2265</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>67.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4885</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>64.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.1183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5220</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4127</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7643</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006250</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根动力精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.41</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7307</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7182</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6830</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010615</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国金自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6429</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009345</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4366</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010616</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国金自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2867</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2794</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2640</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>166011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2459</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>762001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009346</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中银顺兴回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>44.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2014</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001306</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧永裕混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1861</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006277</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1434</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1363</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中金鑫瑞优选一年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001403</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商国企改革主题混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1076</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000029</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国宏观策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>74.79</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>006822</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>凯石湛混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006823</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>凯石湛混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011550</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0719</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000065</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国富焦点驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005489</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010301</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>010951</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中金成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>020015</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国泰区位优势混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>86.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004350</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇丰晋信价值先锋股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519050</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009762</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国金国鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.15</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>53.14</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>517360</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安中证沪港深科技100交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>96.30</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005357</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>富国国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.19</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23.81</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010302</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>达诚成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006573</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001888</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -E</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008869</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成恒享混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004233</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>中欧盛世成长混合 (LOF) -C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>540007</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002339</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通安颐收益混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006278</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中金瑞和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001307</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中欧永裕混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>83.79</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003582</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>中金量化多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>77.93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>011551</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>湘财创新成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>35.06</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005490</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>中金衡优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>30.71</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>008870</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成恒享混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009843</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>中金泰顺12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>24.52</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010952</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中金成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>006574</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>人保行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8484,4 +8485,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>120</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8493,7 +8494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8504,17 +8505,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8524,14 +8545,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>120</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.14</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>61.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7728</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8540,14 +8583,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>23.11</v>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7151</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8556,14 +8621,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>41.36</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5144</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -8572,13 +8659,5009 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>57.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4646</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3641</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.48</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.2413</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2283</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>53.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.5115</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>340008</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>兴全有机增长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3297</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010410</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城品质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>36.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0966</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0714</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>090003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成蓝筹稳健混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0017</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9730</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9421</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>090001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成价值增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>75.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8650</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7222</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6285</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5420</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4800</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4604</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4504</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008480</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4143</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4081</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>200007</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城安心回报混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.69</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3653</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3236</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3198</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2897</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2889</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2807</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2802</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2722</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2601</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2537</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010515</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>53.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>690011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银积极成长混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1973</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.32</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010602</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1430</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009853</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中加优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1209</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1147</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011888</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000884</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>民生加银优选股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1030</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>210001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>金鹰成份股优选混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0959</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>78.03</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0910</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>013296</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>民生加银聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>43.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010411</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>长城品质成长混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>770001</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>德邦优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>88.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010746</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>富安达长三角区域主题混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000567</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发聚祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.23</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>62.92</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010957</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>005850</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>财通量化价值优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009789</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富安达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>510060</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银上证央企50ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>79.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009854</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中加优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>29.19</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>84.02</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010525</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>富国天兴回报混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007114</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>永赢高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>008481</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>永赢股息优选混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>24.31</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011889</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>民生加银周期优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>162211</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>泰达宏利品质生活混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>79.27</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>97.41</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>26.02</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010961</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>九泰久安量化股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>80.45</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>36.46</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>132</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>120</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13560,7 +13561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13571,17 +13572,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13591,14 +13612,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>132</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.26</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.1814</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13607,14 +13650,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>120</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.14</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>59.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1790</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -13623,14 +13688,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>23.11</v>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1321</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -13639,14 +13726,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>52</v>
-      </c>
-      <c r="D5" t="n">
-        <v>41.36</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>47.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9807</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -13655,13 +13764,4381 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9334</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8451</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>398021</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中海能源策略混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7452</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7340</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.45</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4311</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝行业精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006371</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3461</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>169102</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿阳三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2524</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005743</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2204</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519779</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德沪港深价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2201</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2059</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1928</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011899</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1888</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006058</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银新兴成长混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1825</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1540</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>96.64</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1308</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002227</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城新优选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1258</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002616</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501200</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>民生加银科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1133</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002295</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005744</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长安裕隆灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005049</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002307</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华多元视野灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0734</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010508</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时鑫康混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011900</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长安鑫瑞科技先锋6个月定期开放混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0574</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>005050</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长安鑫旺价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001370</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中银新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>34.29</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>006372</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长安鑫盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008736</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.70</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>002228</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城新优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008846</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>000367</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.90</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006202</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>交银施罗德核心资产混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000994</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>74.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>850088</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002061</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国泰安康定期支付混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>011677</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>002617</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中银益利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>63.45</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>008847</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大成民稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000995</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>建信睿盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>009796</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010511</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时鑫康混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>850004</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>74.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008737</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>南方高股息主题股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>24.94</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008604</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>广发稳安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>850099</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>海通量化价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009797</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>大成汇享一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>31.76</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>011678</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>中银睿丰回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>116</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>132</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18021,7 +18022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18032,17 +18033,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -18052,14 +18073,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>116</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.58</v>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -18068,14 +18111,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>132</v>
-      </c>
-      <c r="D3" t="n">
-        <v>44.26</v>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3061</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -18084,14 +18149,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>120</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.14</v>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2429</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -18100,14 +18187,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>23.11</v>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>52.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -18116,14 +18225,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>52</v>
-      </c>
-      <c r="D6" t="n">
-        <v>41.36</v>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.26</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8856</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -18132,13 +18263,2687 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>131.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4821</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0242</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>32.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0063</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.46</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7858</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7320</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信新材料新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7007</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2475</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2122</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2114</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1737</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1621</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.62</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>006385</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>37.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004707</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.09</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005169</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008533</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005170</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华泰保兴策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>710002</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富安达策略精选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>73.83</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>景顺长城睿成灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>62.45</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>70.49</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006386</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰保兴研究智选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008534</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>惠升惠兴混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>43.18</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>72</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>116</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>132</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>120</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>52</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.64</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D2" t="n">
-        <v>20.38</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D3" t="n">
-        <v>22.58</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D4" t="n">
-        <v>44.26</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D5" t="n">
-        <v>30.14</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D6" t="n">
-        <v>23.11</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>41.36</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>52</v>
+      </c>
+      <c r="D8" t="n">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>16</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.64</v>
       </c>
     </row>
@@ -600,6 +617,3170 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2985</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1487</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0657</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7633</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7444</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9674</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007449</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.85</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8055</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7049</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>14.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6939</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银新材料新能源股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6445</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6265</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4398</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519021</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰金鼎价值混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2328</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007450</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全多维价值混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519193</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家消费成长股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1949</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000594</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩进取优选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009688</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家鑫动力月月购一年滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005400</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>080001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0523</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>233011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大摩主题优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0407</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>161910</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159778</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华中证工业互联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.29</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516600</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信中证消费服务领先ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009842</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>东方红明鉴优选两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21.42</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001626</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国泰央企改革股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002177</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009999</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>东方中国红利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>67.81</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005401</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>万家潜力价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006085</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家新机遇价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>64.43</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>96.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>562910</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>易方达中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>370023</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根中证消费服务指数</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>64.06</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012715</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长盛成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>64.64</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>23.84</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21.18</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>30.50</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.18</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>28.03</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>24.02</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001596</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信诚新泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.57</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3387,7 +6568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7847,7 +11028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12913,7 +16094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17525,7 +20706,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18263,7 +21444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20288,7 +23469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
+++ b/数据整理/stocks/A股/上证主板/600406-国电南瑞.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>19.3</v>
+        <v>18.11</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="D3" t="n">
-        <v>20.38</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>116</v>
+        <v>72</v>
       </c>
       <c r="D4" t="n">
-        <v>22.58</v>
+        <v>20.38</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>44.26</v>
+        <v>22.58</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D6" t="n">
-        <v>30.14</v>
+        <v>44.26</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="D7" t="n">
-        <v>23.11</v>
+        <v>30.14</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>41.36</v>
+        <v>23.11</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,694 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3493</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.3001</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信环保产业股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9293</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8583</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>360007</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>光大保德信优势配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5537</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160919</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成产业升级股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>41.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005161</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商上游产业股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1298,2718 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0656</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>50.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010662</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国均衡优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0278</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010966</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>44.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7283</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001245</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银生态环境股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9309</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515600</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.87</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515680</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7762</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001158</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新材料新能源股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6321</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>66.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5782</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159974</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证央企创新驱动ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3167</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011256</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>19.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2492</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008405</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1553</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012833</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1167</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>164905</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1033</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>512650</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证长三角一体化发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.09</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502013</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中证申万一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011257</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿光一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011694</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000993</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009829</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012834</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿信一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011538</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011695</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰紫金信息科技主题6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013248</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009114</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.38</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008404</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华泰紫金泰盈混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009048</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新优选三年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516960</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159778</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证工业互联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.00</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010890</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>562910</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>易方达中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004154</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159886</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国中证细分机械设备产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>48.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000894</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>516320</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏中证装备产业ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>159853</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>南方中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>013453</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>交银国证新能源指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>山西证券裕桓一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>015002</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>工银生态环境股票C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009115</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏扬景泓回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010466</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.28</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>013249</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>交银鸿泰一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010465</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>鹏扬景创混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>32.28</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009830</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城优选增强六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010891</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>交银施罗德鸿福六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>28.26</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011539</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长城优选添瑞六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>009648</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中欧睿达定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004153</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>信诚新悦回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3780,7 +7173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6568,7 +9961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11028,7 +14421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16094,7 +19487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20706,7 +24099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21444,7 +24837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23467,668 +26860,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512960</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>99.98</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.50</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.35</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.3493</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512950</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>88.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>98.57</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.0455</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>515900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>49.31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.05</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2.8452</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>31.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.98</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.8035</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515600</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>22.61</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.3001</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001166</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信环保产业股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.9293</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159959</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>银华中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>23.45</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>99.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.8583</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>360007</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>光大保德信优势配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>15.38</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>85.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5537</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000893</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银创新动力股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>6.13</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>82.35</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2869</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>159974</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国中证央企创新驱动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>99.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.77</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.2775</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>160919</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>大成产业升级股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>90.69</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.49</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1360</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>160638</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1033</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>400020</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>东方成长回报平衡混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>41.27</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0798</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>167503</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安信中证一带一路主题指数</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>360010</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>光大保德信均衡精选混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.90</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0264</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005161</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商上游产业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>87.58</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>